--- a/po_analysis_by_asin/B0CNR8Y29S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CNR8Y29S_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,79 +452,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>165</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>195</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>705</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>30</v>
@@ -532,161 +532,185 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>165</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>390</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45460</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>770</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45537</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>90</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45572</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45579</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>390</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45593</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45607</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B34" t="n">
         <v>10</v>
       </c>
     </row>
@@ -701,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,81 +747,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>480</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>930</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>415</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>710</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>970</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>670</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>770</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>260</v>
+        <v>670</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>540</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>10</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CNR8Y29S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CNR8Y29S_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,174 +543,166 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>165</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>390</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>210</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>380</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>290</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>770</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>50</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>390</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B34" t="n">
         <v>10</v>
       </c>
     </row>
@@ -782,7 +774,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>415</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">

--- a/po_analysis_by_asin/B0CNR8Y29S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CNR8Y29S_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -733,7 +734,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -831,6 +832,607 @@
       </c>
       <c r="B13" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-91.09666806962306</v>
+      </c>
+      <c r="D2" t="n">
+        <v>362.8096692810992</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>142</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-96.30786673262037</v>
+      </c>
+      <c r="D3" t="n">
+        <v>389.5449260473033</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>143</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-93.47453745893793</v>
+      </c>
+      <c r="D4" t="n">
+        <v>373.5474113090217</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>149</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-77.39052647108484</v>
+      </c>
+      <c r="D5" t="n">
+        <v>399.3189921207153</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>151</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-86.61796734404506</v>
+      </c>
+      <c r="D6" t="n">
+        <v>389.8146292686172</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>153</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-93.8507210988099</v>
+      </c>
+      <c r="D7" t="n">
+        <v>385.3369960853288</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>154</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-84.89189460684409</v>
+      </c>
+      <c r="D8" t="n">
+        <v>379.1131742034493</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>156</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-72.07170567281848</v>
+      </c>
+      <c r="D9" t="n">
+        <v>407.2595616043554</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>158</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-74.98913819128953</v>
+      </c>
+      <c r="D10" t="n">
+        <v>391.9818208711765</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>160</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-76.81006925636945</v>
+      </c>
+      <c r="D11" t="n">
+        <v>389.3381108529385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>162</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-79.05050498281905</v>
+      </c>
+      <c r="D12" t="n">
+        <v>392.8018728163197</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>165</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-87.88468530577639</v>
+      </c>
+      <c r="D13" t="n">
+        <v>394.6464958762446</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>169</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-63.46155227926863</v>
+      </c>
+      <c r="D14" t="n">
+        <v>397.7713359370856</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>171</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-71.77285065858499</v>
+      </c>
+      <c r="D15" t="n">
+        <v>408.5157547979476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>173</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-63.18214371767017</v>
+      </c>
+      <c r="D16" t="n">
+        <v>391.7343116839273</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>176</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-67.29104913802419</v>
+      </c>
+      <c r="D17" t="n">
+        <v>413.6357036877841</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>178</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-61.91276531189516</v>
+      </c>
+      <c r="D18" t="n">
+        <v>414.0706513125234</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>180</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-65.9060388082161</v>
+      </c>
+      <c r="D19" t="n">
+        <v>402.4265612986914</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>182</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-74.10903256318329</v>
+      </c>
+      <c r="D20" t="n">
+        <v>419.2331720801949</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>184</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-67.39699448627022</v>
+      </c>
+      <c r="D21" t="n">
+        <v>430.0144870990749</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>186</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-43.17916795556471</v>
+      </c>
+      <c r="D22" t="n">
+        <v>433.085831325037</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>187</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-40.58572430211465</v>
+      </c>
+      <c r="D23" t="n">
+        <v>438.2461411051747</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>191</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-49.48735633703546</v>
+      </c>
+      <c r="D24" t="n">
+        <v>417.6949628322757</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>193</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-32.39537984882926</v>
+      </c>
+      <c r="D25" t="n">
+        <v>430.3868395745391</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>209</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-18.02534135720999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>457.70047436465</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>213</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-22.20511858296272</v>
+      </c>
+      <c r="D27" t="n">
+        <v>452.4356258825997</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>219</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-17.95021595527567</v>
+      </c>
+      <c r="D28" t="n">
+        <v>456.1548511092986</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>220</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.976154570734508</v>
+      </c>
+      <c r="D29" t="n">
+        <v>455.8965514191792</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>222</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-15.92455916911469</v>
+      </c>
+      <c r="D30" t="n">
+        <v>466.1938272669167</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>224</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-11.48455789865452</v>
+      </c>
+      <c r="D31" t="n">
+        <v>460.2583401123092</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>228</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-5.122084022273569</v>
+      </c>
+      <c r="D32" t="n">
+        <v>467.7862576924372</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>231</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.474116961306918</v>
+      </c>
+      <c r="D33" t="n">
+        <v>463.6660751124881</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>233</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15.83786834965761</v>
+      </c>
+      <c r="D34" t="n">
+        <v>463.7123110209289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>235</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-15.68109757442497</v>
+      </c>
+      <c r="D35" t="n">
+        <v>467.8802183103493</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>237</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-3.77689777825015</v>
+      </c>
+      <c r="D36" t="n">
+        <v>458.9305612796688</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>239</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.9959794353865125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>455.4752846838742</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>240</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.363671124916902</v>
+      </c>
+      <c r="D38" t="n">
+        <v>489.7894263950822</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>242</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20.09701823256697</v>
+      </c>
+      <c r="D39" t="n">
+        <v>476.795856588067</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>244</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.359984753951346</v>
+      </c>
+      <c r="D40" t="n">
+        <v>477.9282947275392</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>246</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.378107761443168</v>
+      </c>
+      <c r="D41" t="n">
+        <v>469.2981616763078</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CNR8Y29S_po_data.xlsx
+++ b/po_analysis_by_asin/B0CNR8Y29S_po_data.xlsx
@@ -845,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,16 +864,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -882,12 +872,6 @@
       <c r="B2" t="n">
         <v>140</v>
       </c>
-      <c r="C2" t="n">
-        <v>-91.09666806962306</v>
-      </c>
-      <c r="D2" t="n">
-        <v>362.8096692810992</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -896,12 +880,6 @@
       <c r="B3" t="n">
         <v>142</v>
       </c>
-      <c r="C3" t="n">
-        <v>-96.30786673262037</v>
-      </c>
-      <c r="D3" t="n">
-        <v>389.5449260473033</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -910,12 +888,6 @@
       <c r="B4" t="n">
         <v>143</v>
       </c>
-      <c r="C4" t="n">
-        <v>-93.47453745893793</v>
-      </c>
-      <c r="D4" t="n">
-        <v>373.5474113090217</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -924,12 +896,6 @@
       <c r="B5" t="n">
         <v>149</v>
       </c>
-      <c r="C5" t="n">
-        <v>-77.39052647108484</v>
-      </c>
-      <c r="D5" t="n">
-        <v>399.3189921207153</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -938,12 +904,6 @@
       <c r="B6" t="n">
         <v>151</v>
       </c>
-      <c r="C6" t="n">
-        <v>-86.61796734404506</v>
-      </c>
-      <c r="D6" t="n">
-        <v>389.8146292686172</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -952,12 +912,6 @@
       <c r="B7" t="n">
         <v>153</v>
       </c>
-      <c r="C7" t="n">
-        <v>-93.8507210988099</v>
-      </c>
-      <c r="D7" t="n">
-        <v>385.3369960853288</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -966,12 +920,6 @@
       <c r="B8" t="n">
         <v>154</v>
       </c>
-      <c r="C8" t="n">
-        <v>-84.89189460684409</v>
-      </c>
-      <c r="D8" t="n">
-        <v>379.1131742034493</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -980,12 +928,6 @@
       <c r="B9" t="n">
         <v>156</v>
       </c>
-      <c r="C9" t="n">
-        <v>-72.07170567281848</v>
-      </c>
-      <c r="D9" t="n">
-        <v>407.2595616043554</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -994,12 +936,6 @@
       <c r="B10" t="n">
         <v>158</v>
       </c>
-      <c r="C10" t="n">
-        <v>-74.98913819128953</v>
-      </c>
-      <c r="D10" t="n">
-        <v>391.9818208711765</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1008,12 +944,6 @@
       <c r="B11" t="n">
         <v>160</v>
       </c>
-      <c r="C11" t="n">
-        <v>-76.81006925636945</v>
-      </c>
-      <c r="D11" t="n">
-        <v>389.3381108529385</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,12 +952,6 @@
       <c r="B12" t="n">
         <v>162</v>
       </c>
-      <c r="C12" t="n">
-        <v>-79.05050498281905</v>
-      </c>
-      <c r="D12" t="n">
-        <v>392.8018728163197</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1036,12 +960,6 @@
       <c r="B13" t="n">
         <v>165</v>
       </c>
-      <c r="C13" t="n">
-        <v>-87.88468530577639</v>
-      </c>
-      <c r="D13" t="n">
-        <v>394.6464958762446</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1050,12 +968,6 @@
       <c r="B14" t="n">
         <v>169</v>
       </c>
-      <c r="C14" t="n">
-        <v>-63.46155227926863</v>
-      </c>
-      <c r="D14" t="n">
-        <v>397.7713359370856</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1064,12 +976,6 @@
       <c r="B15" t="n">
         <v>171</v>
       </c>
-      <c r="C15" t="n">
-        <v>-71.77285065858499</v>
-      </c>
-      <c r="D15" t="n">
-        <v>408.5157547979476</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1078,12 +984,6 @@
       <c r="B16" t="n">
         <v>173</v>
       </c>
-      <c r="C16" t="n">
-        <v>-63.18214371767017</v>
-      </c>
-      <c r="D16" t="n">
-        <v>391.7343116839273</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1092,12 +992,6 @@
       <c r="B17" t="n">
         <v>176</v>
       </c>
-      <c r="C17" t="n">
-        <v>-67.29104913802419</v>
-      </c>
-      <c r="D17" t="n">
-        <v>413.6357036877841</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1106,12 +1000,6 @@
       <c r="B18" t="n">
         <v>178</v>
       </c>
-      <c r="C18" t="n">
-        <v>-61.91276531189516</v>
-      </c>
-      <c r="D18" t="n">
-        <v>414.0706513125234</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1120,12 +1008,6 @@
       <c r="B19" t="n">
         <v>180</v>
       </c>
-      <c r="C19" t="n">
-        <v>-65.9060388082161</v>
-      </c>
-      <c r="D19" t="n">
-        <v>402.4265612986914</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1134,12 +1016,6 @@
       <c r="B20" t="n">
         <v>182</v>
       </c>
-      <c r="C20" t="n">
-        <v>-74.10903256318329</v>
-      </c>
-      <c r="D20" t="n">
-        <v>419.2331720801949</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1148,12 +1024,6 @@
       <c r="B21" t="n">
         <v>184</v>
       </c>
-      <c r="C21" t="n">
-        <v>-67.39699448627022</v>
-      </c>
-      <c r="D21" t="n">
-        <v>430.0144870990749</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1162,12 +1032,6 @@
       <c r="B22" t="n">
         <v>186</v>
       </c>
-      <c r="C22" t="n">
-        <v>-43.17916795556471</v>
-      </c>
-      <c r="D22" t="n">
-        <v>433.085831325037</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1176,12 +1040,6 @@
       <c r="B23" t="n">
         <v>187</v>
       </c>
-      <c r="C23" t="n">
-        <v>-40.58572430211465</v>
-      </c>
-      <c r="D23" t="n">
-        <v>438.2461411051747</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1190,12 +1048,6 @@
       <c r="B24" t="n">
         <v>191</v>
       </c>
-      <c r="C24" t="n">
-        <v>-49.48735633703546</v>
-      </c>
-      <c r="D24" t="n">
-        <v>417.6949628322757</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1204,12 +1056,6 @@
       <c r="B25" t="n">
         <v>193</v>
       </c>
-      <c r="C25" t="n">
-        <v>-32.39537984882926</v>
-      </c>
-      <c r="D25" t="n">
-        <v>430.3868395745391</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1218,12 +1064,6 @@
       <c r="B26" t="n">
         <v>209</v>
       </c>
-      <c r="C26" t="n">
-        <v>-18.02534135720999</v>
-      </c>
-      <c r="D26" t="n">
-        <v>457.70047436465</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1232,12 +1072,6 @@
       <c r="B27" t="n">
         <v>213</v>
       </c>
-      <c r="C27" t="n">
-        <v>-22.20511858296272</v>
-      </c>
-      <c r="D27" t="n">
-        <v>452.4356258825997</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1246,12 +1080,6 @@
       <c r="B28" t="n">
         <v>219</v>
       </c>
-      <c r="C28" t="n">
-        <v>-17.95021595527567</v>
-      </c>
-      <c r="D28" t="n">
-        <v>456.1548511092986</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1260,12 +1088,6 @@
       <c r="B29" t="n">
         <v>220</v>
       </c>
-      <c r="C29" t="n">
-        <v>-4.976154570734508</v>
-      </c>
-      <c r="D29" t="n">
-        <v>455.8965514191792</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1274,12 +1096,6 @@
       <c r="B30" t="n">
         <v>222</v>
       </c>
-      <c r="C30" t="n">
-        <v>-15.92455916911469</v>
-      </c>
-      <c r="D30" t="n">
-        <v>466.1938272669167</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1288,12 +1104,6 @@
       <c r="B31" t="n">
         <v>224</v>
       </c>
-      <c r="C31" t="n">
-        <v>-11.48455789865452</v>
-      </c>
-      <c r="D31" t="n">
-        <v>460.2583401123092</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1302,12 +1112,6 @@
       <c r="B32" t="n">
         <v>228</v>
       </c>
-      <c r="C32" t="n">
-        <v>-5.122084022273569</v>
-      </c>
-      <c r="D32" t="n">
-        <v>467.7862576924372</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1316,12 +1120,6 @@
       <c r="B33" t="n">
         <v>231</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.474116961306918</v>
-      </c>
-      <c r="D33" t="n">
-        <v>463.6660751124881</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1330,12 +1128,6 @@
       <c r="B34" t="n">
         <v>233</v>
       </c>
-      <c r="C34" t="n">
-        <v>15.83786834965761</v>
-      </c>
-      <c r="D34" t="n">
-        <v>463.7123110209289</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1344,12 +1136,6 @@
       <c r="B35" t="n">
         <v>235</v>
       </c>
-      <c r="C35" t="n">
-        <v>-15.68109757442497</v>
-      </c>
-      <c r="D35" t="n">
-        <v>467.8802183103493</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1358,12 +1144,6 @@
       <c r="B36" t="n">
         <v>237</v>
       </c>
-      <c r="C36" t="n">
-        <v>-3.77689777825015</v>
-      </c>
-      <c r="D36" t="n">
-        <v>458.9305612796688</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1372,12 +1152,6 @@
       <c r="B37" t="n">
         <v>239</v>
       </c>
-      <c r="C37" t="n">
-        <v>-0.9959794353865125</v>
-      </c>
-      <c r="D37" t="n">
-        <v>455.4752846838742</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1386,12 +1160,6 @@
       <c r="B38" t="n">
         <v>240</v>
       </c>
-      <c r="C38" t="n">
-        <v>2.363671124916902</v>
-      </c>
-      <c r="D38" t="n">
-        <v>489.7894263950822</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1400,12 +1168,6 @@
       <c r="B39" t="n">
         <v>242</v>
       </c>
-      <c r="C39" t="n">
-        <v>20.09701823256697</v>
-      </c>
-      <c r="D39" t="n">
-        <v>476.795856588067</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1414,12 +1176,6 @@
       <c r="B40" t="n">
         <v>244</v>
       </c>
-      <c r="C40" t="n">
-        <v>5.359984753951346</v>
-      </c>
-      <c r="D40" t="n">
-        <v>477.9282947275392</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1427,12 +1183,6 @@
       </c>
       <c r="B41" t="n">
         <v>246</v>
-      </c>
-      <c r="C41" t="n">
-        <v>9.378107761443168</v>
-      </c>
-      <c r="D41" t="n">
-        <v>469.2981616763078</v>
       </c>
     </row>
   </sheetData>
